--- a/teams_data.xlsx
+++ b/teams_data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B558"/>
+  <dimension ref="A1:B350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,2340 +448,2340 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>('Girona', 'Mallorca')</t>
+          <t>('Ross County', 'Livingston')</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>('Girona FC', 'RCD Mallorca')</t>
+          <t>('Ross County', 'Livingston')</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>('Dijon', 'Boulogne')</t>
+          <t>('Inter Miami', 'CF Montreal')</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>('Dijon FCO', 'US Boulogne')</t>
+          <t>('Inter Miami', 'CF Montreal')</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>('Braintree Town', 'Rochdale')</t>
+          <t>('Voluntari', 'Unirea Slobozia')</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>('Braintree Town FC', 'Rochdale AFC')</t>
+          <t>('Voluntari', 'Unirea Slobozia')</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>('Al Duhail', 'Al-Sailiya')</t>
+          <t>('Austin FC', 'Real Salt Lake')</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>('Al-Duhail', 'Al-Sailiya')</t>
+          <t>('Austin', 'Real Salt Lake')</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>('Floridsdorfer AC', 'SV Horn')</t>
+          <t>('Avispa Fukuoka', 'Tokyo Verdy')</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>('Floridsdorfer AC', 'Horn')</t>
+          <t>('Avispa Fukuoka', 'Tokyo Verdy')</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>('Union Santa Fe', 'Palestino')</t>
+          <t>('Fluminense', 'Once Caldas')</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>('Union de Santa Fe', 'CD Palestino')</t>
+          <t>('Fluminense FC RJ', 'CD Once Caldas')</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>('Kettering Town', 'Telford United')</t>
+          <t>('Caracas', 'Deportes Iquique')</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>('Kettering Town', 'AFC Telford United')</t>
+          <t>('Caracas FC', 'Deportes Iquique')</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>('Kotwica Kolobrzeg', 'Chrobry Glogow')</t>
+          <t>('Elversberg', 'Heidenheim')</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>('Kotwica Kolobrzeg', 'Chrobry Glogow')</t>
+          <t>('SV 07 Elversberg', '1. FC Heidenheim')</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>('Austria Lustenau', 'First Vienna')</t>
+          <t>('Criciuma', 'Coritiba')</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>('Austria Lustenau', 'First Vienna')</t>
+          <t>('Criciuma', 'Coritiba')</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>('Mushuc Runa', 'Cruzeiro')</t>
+          <t>('LASK Linz', 'Hartberg')</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>('Mushuc Runa SC', 'Cruzeiro EC MG')</t>
+          <t>('LASK Linz', 'Hartberg')</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>('Wadi Degla', 'Dayrout')</t>
+          <t>('Royal Antwerp', 'Charleroi')</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>('Wadi Degla', 'Dayrout')</t>
+          <t>('Royal Antwerp', 'R. Charleroi')</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>('FC Juarez u23', 'Pachuca u23')</t>
+          <t>('Antalyaspor', 'Trabzonspor')</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>('Juarez u23', 'Pachuca u23')</t>
+          <t>('Antalyaspor', 'Trabzonspor')</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>('Ajman', 'Al-Urooba')</t>
+          <t>('Internacional', 'Bahia')</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>('Ajman Club', 'Al Urooba')</t>
+          <t>('SC Internacional RS', 'EC Bahia BA')</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>('Floriana', 'Hamrun Spartans')</t>
+          <t>('Brommapojkarna', 'Djurgardens')</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>('Floriana', 'Hamrun Spartans')</t>
+          <t>('Brommapojkarna', 'Djurgardens')</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>('Derry City', 'St Patrick´s Athletic')</t>
+          <t>('Los Angeles Galaxy', 'San Jose Earthquakes')</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>('Derry City', "St Patrick's Athletic")</t>
+          <t>('Los Angeles Galaxy', 'San Jose Earthquakes')</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>('Anyang', 'FC Seoul')</t>
+          <t>('Omiya Ardija', 'Jubilo Iwata')</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>('Anyang', 'Seoul')</t>
+          <t>('Omiya Ardija', 'Jubilo Iwata')</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>('Ismaily', 'ENPPI')</t>
+          <t>('Gimcheon Sangmu', 'FC Seoul')</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>('Ismaily', 'ENPPI')</t>
+          <t>('Gimcheon Sangmu', 'Seoul')</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>('Finn Harps', 'Athlone Town')</t>
+          <t>('Gangwon FC', 'Anyang')</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>('Finn Harps', 'Athlone Town')</t>
+          <t>('Gangwon', 'Anyang')</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>('Real Cundinamarca', 'Bogota')</t>
+          <t>('Sandvikens IF', 'Sundsvall')</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>('Real Cundinamarca', 'Bogota')</t>
+          <t>('Sandvikens', 'Sundsvall')</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>('FK Auda', 'Riga FC')</t>
+          <t>('The Strongest', 'ABB')</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>('Auda', 'Riga FC')</t>
+          <t>('The Strongest', 'ABB')</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>('Vegalta Sendai', 'Fujieda MYFC')</t>
+          <t>('Castellon', 'Real Zaragoza')</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>('Vegalta Sendai', 'Fujieda MYFC')</t>
+          <t>('CD Castellon', 'Real Zaragoza')</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>('Oakland Roots', 'Sacramento Republic')</t>
+          <t>('Ansan Greeners', 'Seongnam FC')</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>('Oakland Roots', 'Sacramento Republic')</t>
+          <t>('Ansan Greeners', 'Seongnam')</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>('Monterey Bay', 'Miami FC')</t>
+          <t>('Toronto FC', 'Philadelphia Union')</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>('Monterey Bay', 'Miami')</t>
+          <t>('Toronto', 'Philadelphia Union')</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>('Kasimpasa', 'Trabzonspor')</t>
+          <t>('D.C. United', 'New England Revolution')</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>('Kasimpasa', 'Trabzonspor')</t>
+          <t>('D.C. United', 'New England Revolution')</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>('Suwon FC', 'Daegu FC')</t>
+          <t>('Sogndal', 'Raufoss')</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>('Suwon', 'Daegu')</t>
+          <t>('Sogndal', 'Raufoss')</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>('Admira Wacker', 'Voitsberg')</t>
+          <t>('Umea', 'Orgryte')</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>('Admira Wacker', 'ASK Voitsberg')</t>
+          <t>('Umea', 'Orgryte')</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>('Politecnico', 'Oceania')</t>
+          <t>('Stromsgodset II', 'Skedsmo')</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>('Politecnico', 'Oceania FC')</t>
+          <t>('Stromsgodset II', 'Skedsmo')</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>('Yunnan Yukun', 'Shandong Taishan')</t>
+          <t>('FC Cincinnati', 'FC Dallas')</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>('Yunnan Yukun', 'Shandong Taishan')</t>
+          <t>('Cincinnati', 'Dallas')</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>('Deportes Iquique', 'Atletico Mineiro')</t>
+          <t>('Independiente Petrolero', 'Aurora')</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>('Deportes Iquique', 'Atletico Mineiro MG')</t>
+          <t>('Independiente Petrolero', 'Club Aurora')</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>('Athletic Club', 'Vila Nova')</t>
+          <t>('Vestri', 'Vikingur Reykjavik')</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>('Athletic Club MG', 'Vila Nova')</t>
+          <t>('Vestri', 'Vikingur Reykjavik')</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>('Real Oruro', 'Universitario de Vinto')</t>
+          <t>('Universidad Catolica del Ecuador', 'Vitoria')</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>('Real Oruro', 'Universitario de Vinto')</t>
+          <t>('CD Universidad Catolica del Ecuador', 'EC Vitoria BA')</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>('AD San Carlos', 'AD Santos de Guapiles')</t>
+          <t>('Independiente FBC', 'Pastoreo')</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>('San Carlos', 'Santos de Guapiles')</t>
+          <t>('Independiente FBC', 'Pastoreo')</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>('Inter Miami II', 'New York City II')</t>
+          <t>('Breidablik', 'IA Akranes')</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>('Inter Miami II', 'New York City II')</t>
+          <t>('Breiðablik UBK', 'IA Akranes')</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>('Chateauroux', 'Orleans')</t>
+          <t>('Nagoya Grampus', 'Albirex Niigata')</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>('LB Chateauroux', 'US Orleans')</t>
+          <t>('Nagoya Grampus', 'Albirex Niigata')</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>('Figueirense', 'Caxias RS')</t>
+          <t>('Brage', 'Utsiktens')</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>('Figueirense', 'S.E.R. Caxias do Sul')</t>
+          <t>('Brage', 'Utsiktens')</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>('National Bank of Egypt', 'Zamalek')</t>
+          <t>('Flamengo', 'Deportivo Tachira')</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>('National Bank of Egypt', 'Zamalek')</t>
+          <t>('CR Flamengo RJ', 'Deportivo Tachira')</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>('Altrincham', 'Tamworth')</t>
+          <t>('Vancouver Whitecaps', 'Minnesota United')</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>('Altrincham FC', 'Tamworth FC')</t>
+          <t>('Vancouver Whitecaps', 'Minnesota United')</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>('Stade Lausanne Ouchy', 'Bellinzona')</t>
+          <t>('Orlando Pirates', 'Magesi')</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>('Stade Lausanne-Ouchy', 'AC Bellinzona')</t>
+          <t>('Orlando Pirates', 'Magesi')</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>('Montedio Yamagata', 'Oita Trinita')</t>
+          <t>('Biskra', 'MC Oran')</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>('Montedio Yamagata', 'Oita Trinita')</t>
+          <t>('Biskra', 'Oran')</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>('Wealdstone', 'Halifax Town')</t>
+          <t>('Sao Paulo', 'Talleres de Cordoba')</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>('Wealdstone FC', 'FC Halifax Town')</t>
+          <t>('Sao Paulo FC SP', 'CA Talleres de Cordoba')</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>('FCSB', 'Dinamo Bucuresti')</t>
+          <t>('Hammarby', 'Degerfors')</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>('FCSB', 'Dinamo Bucuresti')</t>
+          <t>('Hammarby', 'Degerfors')</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>('General Caballero JLM', 'Sportivo Trinidense')</t>
+          <t>('Libertad Asuncion', 'Alianza Lima')</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>('General Caballero JLM', 'Sportivo Trinidense')</t>
+          <t>('Libertad Asuncion', 'Alianza Lima')</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>('Motor Lublin', 'Piast Gliwice')</t>
+          <t>('Club Guarani', 'Boston River')</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>('Motor Lublin', 'Piast Gliwice')</t>
+          <t>('Club Guarani', 'CA Boston River')</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>('Maidenhead United', 'Boston United')</t>
+          <t>('Estudiantes de La Plata', 'Carabobo')</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>('Maidenhead United FC', 'Boston United FC')</t>
+          <t>('Estudiantes de La Plata', 'Carabobo FC')</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>('Al Rayyan', 'Lusail')</t>
+          <t>('BATE Borisov', 'Smorgon')</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>('Al Rayyan', 'Lusail')</t>
+          <t>('BATE Borisov', 'Smorgon')</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>('Tokyo Verdy', 'Yokohama FC')</t>
+          <t>('Torvastad', 'Sandnes Ulf II')</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>('Tokyo Verdy', 'Yokohama')</t>
+          <t>('Torvastad', 'Sandnes Ulf II')</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>('Telstar', 'Emmen')</t>
+          <t>('Gnistan', 'Ilves')</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>('Telstar', 'Emmen')</t>
+          <t>('Gnistan', 'Ilves')</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>('Silkeborg', 'Brondby')</t>
+          <t>('Machida Zelvia', 'Yokohama F. Marinos')</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>('Silkeborg', 'Brondby')</t>
+          <t>('Machida Zelvia', 'Yokohama F. Marinos\t')</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>('Persib Bandung', 'Barito Putera')</t>
+          <t>('University College Dublin', 'Athlone Town')</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>('Persib Bandung', 'PS Barito Putera')</t>
+          <t>('University College Dublin', 'Athlone Town')</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>('Ehime', 'Iwaki FC')</t>
+          <t>('Ranheim', 'Aalesunds')</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>('Ehime', 'Iwaki')</t>
+          <t>('Ranheim', 'Aalesunds')</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>('Dewa United', 'Persita Tangerang')</t>
+          <t>('Lanus', 'Academia Puerto Cabello')</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>('Dewa United', 'Persita Tangerang')</t>
+          <t>('CA Lanus', 'Academia Puerto Cabello')</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>('Schaffhausen', 'Stade Nyonnais')</t>
+          <t>('LDU Quito', 'Central Cordoba')</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>('Schaffhausen', 'Stade Nyonnais')</t>
+          <t>('LDU Quito', 'CA Central Cordoba SE')</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>('Gyori ETO', 'Fehervar')</t>
+          <t>('Cruzeiro', 'Union Santa Fe')</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>('Gyori ETO', 'MOL Fehervar')</t>
+          <t>('Cruzeiro EC MG', 'Union de Santa Fe')</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>('Redlands United', 'Caboolture')</t>
+          <t>('Imabari', 'Tokushima Vortis')</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>('Redlands United', 'Caboolture')</t>
+          <t>('Imabari', 'Tokushima Vortis')</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>('CS Cartagines', 'Sporting San Jose FC')</t>
+          <t>('Columbus Crew', 'Nashville SC')</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>('Cartagines', 'Sporting San Jose')</t>
+          <t>('Columbus Crew', 'Nashville')</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>('Juve Stabia', 'Reggiana')</t>
+          <t>('Gamba Osaka', 'Kashima Antlers')</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>('Juve Stabia', 'Reggiana 1919')</t>
+          <t>('Gamba Osaka', 'Kashima Antlers')</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>('Oldham Athletic', 'Ebbsfleet United')</t>
+          <t>('Atletico Mineiro', 'Cienciano')</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>('Oldham Athletic', 'Ebbsfleet United FC')</t>
+          <t>('Atletico Mineiro MG', 'CS Cienciano')</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>('Horsens', 'Odense BK')</t>
+          <t>('Melbourne City', 'Melbourne Victory')</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>('Horsens', 'Odense')</t>
+          <t>('Melbourne City', 'Melbourne Victory')</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>('Independiente del Valle', 'Emelec')</t>
+          <t>('Ceramica Cleopatra', 'Pyramids FC')</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>('Independiente del Valle', 'Emelec')</t>
+          <t>('Ceramica Cleopatra', 'Pyramids')</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>('AFC Fylde', 'Barnet')</t>
+          <t>('Hatayspor', 'Fenerbahce')</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>('AFC Fylde', 'Barnet FC')</t>
+          <t>('Hatayspor', 'Fenerbahce')</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>('Coleraine', 'Crusaders')</t>
+          <t>('Deportivo Recoleta', 'Sportivo Trinidense')</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>('Coleraine', 'Crusaders')</t>
+          <t>('Deportivo Recoleta', 'Sportivo Trinidense')</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>('Cerro Largo', 'Universidad Catolica del Ecuador')</t>
+          <t>('Wexford', 'Dundalk')</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>('Cerro Largo FC', 'CD Universidad Catolica del Ecuador')</t>
+          <t>('Wexford', 'Dundalk')</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>('Machida Zelvia', 'Kyoto Sanga')</t>
+          <t>('Batman Petrolspor', 'Altinordu')</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>('Machida Zelvia', 'Kyoto Sanga')</t>
+          <t>('Batman Petrolspor', 'Altınordu')</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>('Helmond Sport', 'De Graafschap')</t>
+          <t>('Godoy Cruz', 'Atletico Grau')</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>('Helmond Sport', 'De Graafschap')</t>
+          <t>('CD Godoy Cruz', 'Atletico Grau')</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>('Krumovgrad', 'Lokomotiv Plovdiv')</t>
+          <t>('Bray Wanderers', 'Finn Harps')</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>('Krumovgrad', 'Lokomotiv Plovdiv')</t>
+          <t>('Bray Wanderers', 'Finn Harps')</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>('Wolfsburg', 'Hoffenheim')</t>
+          <t>('New York Red Bulls', 'Charlotte FC')</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>('VfL Wolfsburg', 'TSG Hoffenheim')</t>
+          <t>('New York Red Bulls', 'Charlotte')</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>('Municipal Perez Zeledon', 'Deportivo Saprissa')</t>
+          <t>('Brusque', 'Sao Bernardo FC')</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>('Municipal Perez Zeledon', 'Deportivo Saprissa')</t>
+          <t>('Brusque', 'Sao Bernardo')</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>('FC Copenhagen', 'Viborg')</t>
+          <t>('Guarani', 'Figueirense')</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>('Copenhagen', 'Viborg')</t>
+          <t>('Guarani', 'Figueirense')</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>('Carabobo', 'Botafogo FR RJ')</t>
+          <t>('Palmeiras', 'Sporting Cristal')</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>('Carabobo FC', 'Botafogo FR RJ')</t>
+          <t>('SE Palmeiras SP', 'Sporting Cristal')</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>('Nublense', 'Union La Calera')</t>
+          <t>('Brann', 'Molde')</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>('Nublense', 'Union La Calera')</t>
+          <t>('Brann', 'Molde')</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>('Union Magdalena', 'Once Caldas')</t>
+          <t>('Atlanta United', 'Orlando City')</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>('Union Magdalena', 'Once Caldas')</t>
+          <t>('Atlanta United', 'Orlando City')</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>('Maribor', 'Celje')</t>
+          <t>('Lillestrom SK', 'Egersunds')</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>('Maribor', 'Celje')</t>
+          <t>('Lillestrom', 'Egersunds')</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>('Rouen', 'Paris 13 Atletico')</t>
+          <t>('Fujieda MYFC', 'Montedio Yamagata')</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>('FC Rouen', 'Paris 13 Atletico')</t>
+          <t>('Fujieda MYFC', 'Montedio Yamagata')</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>('Castellon', 'Sporting Gijon')</t>
+          <t>('Vasco da Gama', 'FBC Melgar')</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>('CD Castellon', 'Sporting Gijon')</t>
+          <t>('CR Vasco da Gama RJ', 'FBC Melgar')</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>('Corinthians', 'America de Cali')</t>
+          <t>('Fredrikstad', 'Rosenborg')</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>('SC Corinthians SP', 'America de Cali')</t>
+          <t>('Fredrikstad', 'Rosenborg')</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>('Chelsea', 'Djurgardens')</t>
+          <t>('Grasshopper Club Zurich', 'Aarau')</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>('Chelsea FC', 'Djurgardens IF')</t>
+          <t>('Grasshopper Club Zurich', 'Aarau')</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>('Vissel Kobe', 'Cerezo Osaka')</t>
+          <t>('Chungbuk Cheongju', 'Gyeongnam')</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>('Vissel Kobe', 'Cerezo Osaka')</t>
+          <t>('Chungbuk Cheongju', 'Gyeongnam')</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>('Humaita', 'Independencia AC')</t>
+          <t>('USM Alger', 'Olympique Akbou')</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>('Humaita', 'Independencia')</t>
+          <t>('USM Alger', 'Olympique Akbou')</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>('Borussia Dortmund II', 'Stuttgart II')</t>
+          <t>('New York City', 'Houston Dynamo')</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>('Borussia Dortmund II', 'VfB Stuttgart II')</t>
+          <t>('New York City', 'Houston Dynamo')</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>('Academia Puerto Cabello', 'Vasco da Gama')</t>
+          <t>('Melhus', 'Ranheim II')</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>('Academia Puerto Cabello', 'CR Vasco da Gama RJ')</t>
+          <t>('Melhus', 'Ranheim II')</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>('Aldershot Town', 'Yeovil Town')</t>
+          <t>('Vegalta Sendai', 'Consadole Sapporo')</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>('Aldershot Town FC', 'Yeovil Town')</t>
+          <t>('Vegalta Sendai', 'Consadole Sapporo')</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>('Panserraikos', 'Volos')</t>
+          <t>('Portland Timbers', 'Colorado Rapids')</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>('Panserraikos', 'Volos NFC')</t>
+          <t>('Portland Timbers', 'Colorado Rapids')</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>('Petrojet', 'Ceramica Cleopatra')</t>
+          <t>('Cuiaba', 'Vila Nova')</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>('Petrojet', 'Ceramica Cleopatra')</t>
+          <t>('Cuiaba', 'Vila Nova')</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>('Aarau', 'FC Wil')</t>
+          <t>('Kasimpasa', 'Goztepe')</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>('Aarau', 'Wil 1900')</t>
+          <t>('Kasimpasa', 'Goztepe')</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>('Spokane Velocity', 'Westchester SC')</t>
+          <t>('Cobh Ramblers', 'Treaty United')</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>('Spokane Velocity', 'Westchester SC')</t>
+          <t>('Cobh Ramblers', 'Treaty United')</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>('Sao Bernardo FC', 'Londrina')</t>
+          <t>('Cork City', 'Shelbourne')</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>('Sao Bernardo', 'Londrina')</t>
+          <t>('Cork City', 'Shelbourne')</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>('Necaxa', 'Tigres UANL')</t>
+          <t>('Botev Plovdiv', 'CSKA Sofia')</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>('Club Necaxa', 'Tigres de la UANL')</t>
+          <t>('Botev Plovdiv', 'CSKA Sofia')</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>('Las Palmas', 'Rayo Vallecano')</t>
+          <t>('Kashiwa Reysol', 'Vissel Kobe')</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>('UD Las Palmas', 'Rayo Vallecano')</t>
+          <t>('Kashiwa Reysol', 'Vissel Kobe')</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>('Wexford', 'Cobh Ramblers')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>('Wexford', 'Cobh Ramblers')</t>
+          <t>('Urawa Red Diamonds', 'Cerezo Osaka')</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>('LD Alajuelense', 'Municipal Liberia')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>('Alajuelense', 'Municipal Liberia')</t>
+          <t>('Moss', 'IK Start')</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>('Elfsborg', 'GAIS')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>('Elfsborg', 'GAIS')</t>
+          <t>('Levadia', 'Parnu Vaprus')</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>('Western United', 'Adelaide United')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>('Western United', 'Adelaide United')</t>
+          <t>('Kyoto Sanga', 'Tokyo')</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>('Talleres de Cordoba', 'Libertad Asuncion')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>('CA Talleres de Cordoba', 'Libertad Asuncion')</t>
+          <t>('Malmo', 'Hacken')</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>('Kazma', 'Khaitan')</t>
+          <t>('Union Vocklamarkt', 'Treibach')</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>('Kazma', 'Khaitan')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>('Chapecoense', 'Criciuma')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>('Chapecoense', 'Criciuma')</t>
+          <t>('Al Ittihad Alexandria', 'ENPPI')</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>('Kataller Toyama', 'V-Varen Nagasaki')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>('Kataller Toyama', 'V-Varen Nagasaki')</t>
+          <t>('Didube 2014', 'Borjomi')</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>('Portland Hearts of Pine', 'One Knoxville')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>('Portland Hearts of Pine', 'One Knoxville')</t>
+          <t>('HJK', 'Kuopion Palloseura')</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>('Fortaleza', 'Colo Colo')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>('Fortaleza EC CE', 'Colo-Colo')</t>
+          <t>('Tigres Futbol Club', 'Jaguares de Cordoba')</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>('Hartlepool United', 'Forest Green Rovers')</t>
+          <t>('Landskrona', 'Falkenbergs')</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>('Hartlepool United', 'Forest Green Rovers')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>('Universidad de Chile', 'Estudiantes de La Plata')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>('Universidad de Chile', 'Estudiantes de La Plata')</t>
+          <t>('1. FC Lokomotive Leipzig', 'TSV Havelse')</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>('Deportivo Tachira', 'LDU Quito')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>('Deportivo Tachira', 'LDU Quito')</t>
+          <t>('Diarra de la Commune 4', 'Bougouba')</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>('FBC Melgar', 'Lanus')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>('FBC Melgar', 'CA Lanus')</t>
+          <t>('Esporte Clube San Luis', 'Joinville')</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>('Vitoria', 'Defensa y Justicia')</t>
+          <t>('Gremio', 'Sportivo Luqueno')</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>('EC Vitoria BA', 'Defensa y Justicia')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>('Boyaca Chico', 'Envigado')</t>
+          <t>('Atletico River Plate reserve', 'Defensor Sporting reserve')</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>('Boyaca Chico', 'Envigado')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>('Stal Stalowa Wola', 'Znicz Pruszkow')</t>
+          <t>('AC Oulu', 'SJK')</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>('Stal Stalowa Wola', 'Znicz Pruszkow')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>('Aucas', 'Libertad Loja')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>('SD Aucas', 'Libertad Loja')</t>
+          <t>('Kudrivka', 'Vorskla Poltava')</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>('Concarneau', 'Le Mans')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>('US Concarneau', 'Le Mans FC')</t>
+          <t>('USM Alger u21', 'ES Setif u21')</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>('Moca', 'Cibao')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>('Moca', 'Cibao')</t>
+          <t>('Rijeka', 'Slaven Belupo')</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>('Orebro SK', 'Trelleborgs')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>('Orebro', 'Trelleborgs')</t>
+          <t>('Kokkolan Palloseura', 'Ysikaks Nivala')</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>('Tokushima Vortis', 'Sagan Tosu')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>('Tokushima Vortis', 'Sagan Tosu')</t>
+          <t>('Odds', 'Asane')</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>('Glentoran', 'Cliftonville')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>('Glentoran', 'Cliftonville')</t>
+          <t>('Landskrona BoIS', 'Falkenbergs')</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>('Once Caldas', 'Union Espanola')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>('CD Once Caldas', 'Union Espanola')</t>
+          <t>('Al-Ittihad Jeddah', 'Al-Qadisiyah')</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>('Nacional Potosi', 'Club Guarani')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>('CA Nacional Potosi', 'Club Guarani')</t>
+          <t>('El Bayadh u21', 'Olympique Akbou u21')</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>('Korona Kielce', 'GKS Katowice')</t>
+          <t>('Montevideo City Torque reserve', 'Club Oriental de La Paz reserve')</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>('Korona Kielce', 'Katowice')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>('Qingdao West Coast', 'Shenzhen Peng City')</t>
+          <t>('Lyn', 'Mjondalen')</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>('Qingdao West Coast', 'Shenzhen Peng City')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>('Adama City', 'Mekelle 70 Enderta')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>('Adama City', 'Mekelle 70 Enderta')</t>
+          <t>('Petrojet', 'National Bank of Egypt')</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>('Bulleen Lions', 'Eastern Lions')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>('Bulleen Lions', 'Eastern Lions')</t>
+          <t>('Ararat Yerevan II', 'Nikarm')</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>('Central', 'Defence Force')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>('Central TT', 'Defence Force')</t>
+          <t>('CA Paranaense u20', 'America Minas Gerais u20')</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>('Coventry City', 'Sunderland')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>('Coventry City', 'Sunderland AFC')</t>
+          <t>('Narpes Kraft II', 'VPS Juniorit')</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>('Universitario de Deportes', 'Independiente del Valle')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>('Universitario de Deportes', 'CSD Independiente del Valle')</t>
+          <t>('Lyn Fotball', 'Mjondalen')</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>('The Town', 'Portland Timbers II')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>('The Town', 'Portland Timbers II')</t>
+          <t>('WIT Georgia Tbilisi', 'Betlemi Keda')</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>('SpVgg Unterhaching', 'Hansa Rostock')</t>
+          <t>('Al Arabi', 'Al Jahra')</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>('SpVgg Unterhaching', 'Hansa Rostock')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>('Club Leon', 'Cruz Azul')</t>
+          <t>('Afturelding', 'Valur Reykjavik')</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>('Leon', 'Cruz Azul')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>('Manchester United', 'Athletic Club Bilbao')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>('Manchester United', 'Athletic Bilbao')</t>
+          <t>('Bahir Dar Kenema', 'Arba Minch')</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>('Nagoya Grampus', 'Fagiano Okayama')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>('Nagoya Grampus', 'Fagiano Okayama')</t>
+          <t>('Orbi', 'Gori')</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>('Sporting Cristal', 'Bolivar')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>('Sporting Cristal', 'Club Bolivar')</t>
+          <t>('Al-Arabi Kuwait', 'Al Jahra Kuwait')</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>('Persis Solo', 'Arema FC')</t>
+          <t>('Sochi', 'Nizhny Novgorod')</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>('Persis Solo', 'Arema')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>('Cadiz', 'Almeria')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>('Cadiz CF', 'UD Almeria')</t>
+          <t>('IFK Norrkoping', 'Mjallby')</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>('Alianza Lima', 'Sao Paulo')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>('Alianza Lima', 'Sao Paulo FC SP')</t>
+          <t>('Rekord Bielsko-Biala', 'Swit Skolwin')</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>('Cittadella', 'Bari')</t>
+          <t>('Estrella del Sur', 'General Lamadrid')</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>('AS Cittadella', 'SSC Bari')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>('Solihull Moors', 'Dagenham and Redbridge')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>('Solihull Moors FC', 'Dagenham and Redbridge FC')</t>
+          <t>('Al-Salmiya', 'Al-Nasr SC')</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>('Consadole Sapporo', 'Jubilo Iwata')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>('Consadole Sapporo', 'Jubilo Iwata')</t>
+          <t>('Suwon', 'Jeju United')</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>('Avispa Fukuoka', 'Kashima Antlers')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>('Avispa Fukuoka', 'Kashima Antlers')</t>
+          <t>('Eintracht Braunschweig', '1. FC Saarbrucken')</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>('Totton', 'Gloucester City')</t>
+          <t>('Fram Reykjavik', 'KA Akureyri')</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>('AFC Totton', 'Gloucester City')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>('Blaublitz Akita', 'Ventforet Kofu')</t>
+          <t>('Tigres', 'Jaguares de Cordoba')</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>('Blaublitz Akita', 'Ventforet Kofu')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>('Ilves', 'FC Haka')</t>
+          <t>('KFUM Oslo', 'Valerenga')</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>('Ilves', 'Haka')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>('Meizhou Hakka', 'Shanghai Shenhua')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>('Meizhou Hakka', 'Shanghai Shenhua')</t>
+          <t>('Guairena', 'Tacuary')</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>('CSKA Sofia', 'Botev Plovdiv')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>('CSKA Sofia', 'Botev Plovdiv')</t>
+          <t>('Ethiopian Insurance', 'Sidama Bunna')</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>('Central Cordoba', 'Flamengo')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>('CA Central Cordoba SE', 'CR Flamengo RJ')</t>
+          <t>('Hodonin', 'Unicov')</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>('Jorge Wilstermann', 'Always Ready')</t>
+          <t>('Stabaek', 'Kongsvinger')</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>('Jorge Wilstermann', 'Always Ready')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>('Jeju United', 'Gangwon FC')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>('Jeju United', 'Gangwon')</t>
+          <t>('Kuressaare', 'Flora Tallinn')</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>('Dordrecht', 'Volendam')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>('Dordrecht', 'Volendam')</t>
+          <t>('Stjarnan', 'Knattspyrnufelag Reykjavíkur')</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>('Carl Zeiss Jenafemmes', 'Bayern Munichfemmes')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>('FC Carl Zeiss Jenafemmes', 'Bayern Munichfemmes')</t>
+          <t>('Nasaf Qarshi', 'PFK Andijan')</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>('Dundalk', 'Bray Wanderers')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>('Dundalk', 'Bray Wanderers')</t>
+          <t>('Botafogo FR RJ', 'Universidad de Chile')</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>('Qingdao Hainiu', 'Changchun Yatai')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>('Qingdao Hainiu', 'Changchun Yatai')</t>
+          <t>('ES Mostaganem u21', 'JS Kabylie u21')</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>('Shonan Bellmare', 'Sanfrecce Hiroshima')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>('Shonan Bellmare', 'Sanfrecce Hiroshima')</t>
+          <t>('ZED', 'Smouha')</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>('Bristol City', 'Sheffield United')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>('Bristol City', 'Sheffield United')</t>
+          <t>('ASO Chlef u21', 'MC Alger u21')</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>('Kerry', 'Treaty United')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>('Kerry FC', 'Treaty United')</t>
+          <t>('Copenhagen', 'Silkeborg')</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>('Crystal Palace', 'Nottingham Forest')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>('Crystal Palace', 'Nottingham Forest')</t>
+          <t>('Wsf1', 'Wsf2')</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>('Bodo Glimt', 'Tottenham Hotspur')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>('Bodoe/Glimt', 'Tottenham Hotspur')</t>
+          <t>('NGB ASC Niarry Tally', 'Camberene')</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>('Gornik Zabrze', 'Slask Wroclaw')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>('Gornik Zabrze', 'Slask Wroclaw')</t>
+          <t>('Orebro', 'Brage')</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>('Drogheda United', 'Cork City')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>('Drogheda United', 'Cork City')</t>
+          <t>('Aragvi Dusheti', 'Gardabani')</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>('Pachuca', 'Club America')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>('Pachuca', 'Club America')</t>
+          <t>('Benjamin Aceval', '3 de Febrero FBC')</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>('Sutton United', 'Woking')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>('Sutton United', 'Woking FC')</t>
+          <t>('Independencia', 'Tuna Luso')</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>('Vasteras', 'Kalmar')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>('Vasteras SK', 'Kalmar')</t>
+          <t>('Perolas Negras', 'Americano Rio de Janeiro')</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>('Kashiwa Reysol', 'Shimizu S-Pulse')</t>
+          <t>('Club Sportivo Barracas', 'Centro Espanol')</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>('Kashiwa Reysol', 'Shimizu S-Pulse')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>('Bahia', 'Nacional de Football')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>('EC Bahia BA', 'Club Nacional de Football')</t>
+          <t>('AS Roma', 'ACF Fiorentina')</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>('Brage', 'Ostersunds FK')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>('Brage', 'Ostersunds')</t>
+          <t>('Vila Nova', 'Novorizontino')</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>('AC Milan', 'Bologna')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>('AC Milan', 'Bologna FC')</t>
+          <t>('Club Social y Deportivo Macará', 'Manta')</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>('GKS Tychy', 'Wisla Krakow')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>('GKS Tychy', 'Wisla Krakow')</t>
+          <t>('Utsiktens', 'Kalmar')</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>('Wuhan Three Towns', 'Shanghai Port')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>('Wuhan Three Towns', 'Shanghai Port')</t>
+          <t>('Anyang', 'Daejeon Hana Citizen')</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>('Los Angeles FC II', 'Colorado Rapids II')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>('Los Angeles II', 'Colorado Rapids II')</t>
+          <t>('Stade Reims', 'FC Metz')</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>('Gwangju FC', 'Gimcheon Sangmu')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>('Gwangju', 'Gimcheon Sangmu')</t>
+          <t>('Íþrottabandalag Vestmannaeyja', 'Hafnarfjordur')</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>('UTA Arad', 'Petrolul Ploiesti')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>('UTA Arad', 'Petrolul Ploiesti')</t>
+          <t>('ADT Tarma II', 'Deportivo Ucrania')</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>('Queen of the South', 'Cove Rangers')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>('Queen of the South', 'Cove Rangers')</t>
+          <t>('Daegu', 'Jeonbuk Hyundai Motors')</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>('Santiago Wanderers', 'San Luis de Quillota')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>('Santiago Wanderers', 'San Luis de Quillota')</t>
+          <t>('UVB Vocklamarkt', 'Treibach')</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>('Heroes de Zaci', 'Club Licantropos')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>('Heroes de Zaci', 'Licantropos')</t>
+          <t>('CR Belouizdad', 'Paradou AC')</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>('VVV Venlo', 'ADO Den Haag')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>('VVV-Venlo', 'ADO Den Haag')</t>
+          <t>('Torque II', 'Oriental II')</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>('Penafiel', 'Torreense')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>('Penafiel', 'S.C.U. Torreense')</t>
+          <t>('Esporte Clube Bahia u20', 'Fluminense RJ u20')</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>('Charleroi', 'KVC Westerlo')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>('R. Charleroi', 'K.V.C. Westerlo')</t>
+          <t>('Killester Donnycarney', "St. Mochta's")</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>('Melbourne Victory II', 'Hume City')</t>
+          <t>('Penarol', 'Velez Sarsfield')</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>('Melbourne Victory II', 'Hume City')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>('Urawa Red Diamonds', 'Gamba Osaka')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>('Urawa Red Diamonds', 'Gamba Osaka')</t>
+          <t>('Knattspyrnufelagið Fram', 'Knattspyrnufelag Akureyrar')</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>('Fredericia', 'Hvidovre')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>('Fredericia', 'Hvidovre')</t>
+          <t>('CA Independiente Avellaneda', 'CA Nacional Potosi')</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>('Willem II', 'Heracles Almelo')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>('Willem II', 'Heracles Almelo')</t>
+          <t>('Sportivo Belgrano', 'Ben Hur Rafaela')</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>('Stenhousemuir', 'Airdrieonians')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>('Stenhousemuir', 'Airdrieonians')</t>
+          <t>('Valentine Phoenix', 'Broadmeadow Magic')</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>('Club Americafemmes', 'Guadalajarafemmes')</t>
+          <t>('Olimpia Asuncion', 'San Antonio Bulo Bulo')</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>('Club America (Women)femmes', 'C.D. Guadalajara (Women)femmes')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>('Leones', 'Jaguares de Cordoba')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>('Leones', 'Jaguares de Cordoba')</t>
+          <t>('Daejeon Hana Citizen', 'Pohang Steelers')</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>('Dartford', 'Dover Athletic')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>('Dartford FC', 'Dover Athletic FC')</t>
+          <t>('Al-Fateh Al-Ahsa', 'Al Nassr')</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>('Shelbourne', 'Waterford')</t>
+          <t>('Elazigspor', 'Vanspor')</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>('Shelbourne', 'Waterford')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>('Diriangen', 'Matagalpa FC')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>('Diriangen', 'Matagalpa')</t>
+          <t>('LePa', 'Kurvin Vauhti')</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>('St Polten', 'SW Bregenz')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>('SKN St. Polten', 'Bregenz')</t>
+          <t>('Club Bolivar', 'Cerro Porteno')</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>('Mamelodi Sundowns', 'Chippa United')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>('Mamelodi Sundowns', 'Chippa United')</t>
+          <t>('Bodo-Glimt', 'Viking')</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>('Sporting Kansas City', 'Los Angeles Galaxy')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>('Sporting Kansas City', 'Los Angeles Galaxy')</t>
+          <t>('Odishi 1919 Zugdidi', 'Bakhmaro Chokhatauri')</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>('Kingston City', 'Melbourne City II')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>('Kingston City', 'Melbourne City II')</t>
+          <t>('Beroe Stara Zagora', 'Spartak Varna')</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>('University College Dublin', 'Longford Town')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>('University College Dublin', 'Longford Town')</t>
+          <t>('Academie Generation Foot', 'ASC Linguere')</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>('Roskilde', 'Hobro')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>('Roskilde', 'Hobro')</t>
+          <t>('Tammeka Tartu', 'Tallinna Kalev')</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>('PSIS Semarang', 'PSS Sleman')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>('PSIS Semarang', 'PSS Sleman')</t>
+          <t>('Syunik', 'Ararat Armenia II')</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>('Lokomotiv Sofia', 'Botev Vratsa')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>('Lokomotiv Sofia', 'Botev Vratsa')</t>
+          <t>('Olimpik MobiUZ', 'Aral')</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>('Lamia', 'Levadiakos')</t>
+          <t>('Daegu FC', 'Jeonbuk Motors')</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>('Lamia', 'Levadiakos')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>('Racing Club de Montevideo', 'Huracan')</t>
+          <t>('Racing Club', 'Fortaleza')</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>('Racing Club Montevideo', 'CA Huracan')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>('Malmo', 'Brommapojkarna')</t>
+          <t>('America Mineiro', 'Atletico Goianiense')</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>('Malmo', 'Brommapojkarna')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>('Deportivo Pastofemmes', 'Orsomarsofemmes')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>('Deportivo Pasto (Women)femmes', 'Orsomarso (Women)femmes')</t>
+          <t>('Mito HollyHock', 'V-Varen Nagasaki')</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>('Eastleigh', 'York City')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>('Eastleigh FC', 'York City FC')</t>
+          <t>('KFUM-Kameratene', 'Valerenga')</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>('Boca Juniors de Cali', 'Atletico Cali')</t>
+          <t>('Vilnius Zalgiris II', 'Hegelmann II')</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>('Boca Juniors De Cali', 'Atletico Cali')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>('Apollon Limassol', 'Pafos FC')</t>
+          <t>('Adana Demirspor', 'Gaziantep')</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>('Apollon Limassol', 'Pafos')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
@@ -2793,19 +2793,19 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>('Steve Biko', 'Marimoo')</t>
+          <t>('Colo-Colo', 'CA Bucaramanga')</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>('Libertad Asuncion', 'Atletico Tembetary')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('CA Penarol Montevideo', 'Velez Sarsfield')</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>('Eves (Women)femmes', 'Hops (Women)femmes')</t>
+          <t>('Al-Masry', 'Haras El Hodoud')</t>
         </is>
       </c>
     </row>
@@ -2829,19 +2829,19 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>('Irritilas', 'Santa Ana del Conde')</t>
+          <t>('Alanyaspor', 'Sivasspor')</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>('Atletico Grau', 'Gremio')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Sanfrecce Hiroshima', 'Kawasaki Frontale')</t>
         </is>
       </c>
     </row>
@@ -2853,19 +2853,19 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>('Nimes Olympique', 'Aubagne FC')</t>
+          <t>('Danubio II', 'Albion Montevideo II')</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>('Henan Songshan Longmen', 'Tianjin Jinmen Tiger')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Racing Club Avellaneda', 'Fortaleza EC CE')</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>('Corinthians Paulista (Women)femmes', 'Bahia (Women)femmes')</t>
+          <t>('Vasteras SK', 'Umea')</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>('Istanbul BFK', 'Fenerbahce')</t>
+          <t>('Once Caldas (Women)femmes', 'Independiente Medellin (Women)femmes')</t>
         </is>
       </c>
     </row>
@@ -2901,14 +2901,14 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>('QNK Quang Nam', 'Hanoi Police')</t>
+          <t>('Orgryte', 'Trelleborgs')</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>('Vitesse Arnhem', 'Den Bosch')</t>
+          <t>('Cremonese', 'Spezia')</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -2920,7 +2920,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>('Karmiotissa', 'Omonia Aradippou')</t>
+          <t>('Juventud de Las Piedras reserve', 'Progreso reserve')</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -2937,7 +2937,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>('BIIK Kazygurt (Women)femmes', 'Ulytau (Women)femmes')</t>
+          <t>('Audax Italiano', 'Huachipato')</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>('Tanjong Pagar United', 'Young Lions')</t>
+          <t>('Blaublitz Akita', 'Kataller Toyama')</t>
         </is>
       </c>
     </row>
@@ -2961,43 +2961,43 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>('Barcelona SC', 'CA River Plate (ARG)')</t>
+          <t>('Estrella del Sur', 'Club Atletico General Lamadrid')</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>('Rionegro Aguilas', 'Deportivo Pereira')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Ferroviária', 'Botafogo Ribeirao Preto')</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>('Smouha', 'Talaea El Gaish')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Ural', 'Akhmat')</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>('Jong Ajax', 'TOP Oss')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Indy Eleven', 'Hartford Athletic')</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>('Rosenborg II', 'Nardo')</t>
+          <t>('Haka', 'Vaasan Palloseura')</t>
         </is>
       </c>
     </row>
@@ -3021,7 +3021,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>('Millonarios', 'Deportivo Pereira')</t>
+          <t>('Ettifaq Dammam', 'Al-Wehda Club Mecca')</t>
         </is>
       </c>
     </row>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>('Haugesund II', 'Sandnes Ulf II')</t>
+          <t>('El Bayadh', 'Constantine')</t>
         </is>
       </c>
     </row>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>('Atletico Nacional Medellin', 'SC Internacional RS')</t>
+          <t>('Club Olimpia', 'San Antonio Bulo Bulo')</t>
         </is>
       </c>
     </row>
@@ -3057,55 +3057,55 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>('Jaiba Brava', 'Club Deportivo Mineros de Zacatecas')</t>
+          <t>('Racing Club de Montevideo II', 'Nacional Montevideo II')</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Quilmes', 'San Martin de Tucuman')</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>('Manchester United FC u21', 'West Ham United FC u21')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Al Masry', 'Haras El Hodood')</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>('Mlada Boleslav II', 'Hradec Kralove II')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>('Deportivo Binacional', 'Los Chankas')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('KI Klaksvik II', 'EB Streymur II')</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>('Golden Arrows', 'Orlando Pirates')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Al-Ittihad Jeddah', 'Damac')</t>
         </is>
       </c>
     </row>
@@ -3117,7 +3117,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>('Dalian Young Boy', 'Beijing Guoan')</t>
+          <t>('Afturelding (Women)femmes', 'ÍBV Vestmannaeyjar (Women)femmes')</t>
         </is>
       </c>
     </row>
@@ -3129,7 +3129,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>('Atletico Clube Goianiense u20', 'Juventude EC u20')</t>
+          <t>('Levyy Bereg Kyiv', 'Metallist 1925')</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>('Fluminense RJ u20', 'Sao Paulo u20')</t>
+          <t>('Ungmennafelagid Afturelding', 'Valur')</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>('Krylia Sovetov', 'Dynamo Moscow')</t>
+          <t>('Pitea', 'Boden City')</t>
         </is>
       </c>
     </row>
@@ -3165,19 +3165,19 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>('Tukums 2000', 'Liepaja')</t>
+          <t>('Al-Hilal Riyadh', 'Al-Qadisiyah')</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>('Worksop Town', 'Stockton Town')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Al-Riyadh SC', 'Al-Ahli Jeddah')</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>('Club Blooming', 'Gualberto Villarroel')</t>
+          <t>('Herediano', 'Alajuelense')</t>
         </is>
       </c>
     </row>
@@ -3201,43 +3201,43 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>('Pyunik Academia', 'Ararat Yerevan II')</t>
+          <t>('Sagan Tosu', 'Ehime')</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Colo Colo', 'Atletico Bucaramanga')</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>('Deportivo Saprissa', 'AD Guanacasteca')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>('Rio Ave', 'Estrela da Amadora')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('CR Belouizdad u21', 'MC Oran u21')</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>('Jeonbuk Motors', 'Daejeon Citizen')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Paiha', 'PIF II')</t>
         </is>
       </c>
     </row>
@@ -3249,14 +3249,14 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>('Genoa CFC', 'AC Milan')</t>
+          <t>('KTP Kotka', 'Mariehamn')</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>('Sochaux', 'Bourg-en-Bresse')</t>
+          <t>('HJK Helsinki', 'KuPS')</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -3268,12 +3268,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>('Villefranche', 'Quevilly')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Jeonnam Dragons', 'Hwaseong')</t>
         </is>
       </c>
     </row>
@@ -3285,19 +3285,19 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>('Al-Batin', 'Al Adalh')</t>
+          <t>('Margveti 2006', 'Tbilisi 2025')</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Botafogo SP', 'CRB')</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>('Stripfing Weiden', 'Liefering Salzburg')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>('Djurgardens (Women)femmes', 'Norrkoping (Women)femmes')</t>
+          <t>('CA Huracan', 'SC Corinthians SP')</t>
         </is>
       </c>
     </row>
@@ -3321,19 +3321,19 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>('Karmiotissa Pano Polemidion', 'Omonia Aradippou')</t>
+          <t>('Stirling Macedonia', 'Western Knights')</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Racing Club Ferrol', 'Sporting Gijon')</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>('AFC Ajax II', 'Oss')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
@@ -3345,19 +3345,19 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>('Viktoria Plzen II', 'Silon Taborsko II')</t>
+          <t>('Bohemian Dublin', 'Derry City')</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>('Chengdu Rongcheng', 'Zhejiang')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Al-Hilal Benghazi', 'Al-Ahly Benghazi')</t>
         </is>
       </c>
     </row>
@@ -3369,19 +3369,19 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>('AEK Larnaca', 'AC Omonia')</t>
+          <t>('Deportes Recoleta', 'San Luis de Quillota')</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Internacional de Palmira', 'Real Cartagena')</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>('Sampdoria Genoa', 'US Salernitana')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>('Banjul Hawks', 'Real de Banjul')</t>
+          <t>('Penarol II', 'Liverpool Montevideo II')</t>
         </is>
       </c>
     </row>
@@ -3405,7 +3405,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>('Al Safa', 'Al-Arabi Al Saudi')</t>
+          <t>('Kerry FC', 'Longford Town')</t>
         </is>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>('Roasso Kumamoto', 'Imabari')</t>
+          <t>('IFK Norrkoping', 'GAIS')</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>('Atyrau (Women)femmes', 'Kaysar (Women)femmes')</t>
+          <t>('Sitra Club', 'Al Khalidiya')</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>('Ghana u20', 'Senegal u20')</t>
+          <t>('Seattle Sounders', 'San Diego')</t>
         </is>
       </c>
     </row>
@@ -3453,14 +3453,14 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>('Sportivo Trinidense', '2 de Mayo')</t>
+          <t>('Ghazl El Mahalla', 'Ismaily')</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>('Krylya Sovetov', 'Dynamo Moscow')</t>
+          <t>('Stjarnan', 'KR Reykjavik')</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>('Gori', 'SFC Shturmi')</t>
+          <t>('Union Espanola', 'GV Club Deportivo San Jose de Oruro')</t>
         </is>
       </c>
     </row>
@@ -3489,31 +3489,31 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>('Bombada', 'Hart Academy')</t>
+          <t>('Sligo Rovers', "St Patrick's Athletic")</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Gwangju FC', 'Ulsan HD')</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>('Ghazl Kafr EL Dawar', 'Aswan')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Galatasaray', 'Istanbul Basaksehir')</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>('Ungmennafelagid Afturelding', 'Stjarnan')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
@@ -3525,14 +3525,14 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>('Millonarios (Women)femmes', 'Internacional Palmira (Women)femmes')</t>
+          <t>('Biskra u21', 'USM Khenchela u21')</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>('Hammarby', 'Hacken')</t>
+          <t>('Macara', 'Manta')</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -3549,19 +3549,19 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>('Locomotive Tbilisi II', 'Didube 2014')</t>
+          <t>('Arsenal Ceska Lipa', 'Mlada Boleslav II')</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>('Hapoel Ramat Gan', 'Hapoel Petah Tikva')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Al Orobah Al Jawf', 'Al-Taawon')</t>
         </is>
       </c>
     </row>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>('Glentoran Belfast United II', 'Portadown II')</t>
+          <t>('Ternana Calcio', 'L.R. Vicenza')</t>
         </is>
       </c>
     </row>
@@ -3585,19 +3585,19 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>('Hammarby (Women)femmes', 'Hacken (Women)femmes')</t>
+          <t>('Seoul E-Land', 'Busan IPark')</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>('Eastern', 'Kowloon City')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Atletico Bucaramanga (Women)femmes', 'Millonarios (Women)femmes')</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>('Tampa Bay Sun (Women)femmes', 'Dallas Trinity (Women)femmes')</t>
+          <t>('Shamrock Rovers', 'Galway')</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>('Shamrock Rovers', 'Sligo Rovers')</t>
+          <t>('Red Bull Bragantino', 'Esporte Clube Juventude')</t>
         </is>
       </c>
     </row>
@@ -3633,7 +3633,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>('Deportes Magallanes', 'Club de Deportes Santa Cruz')</t>
+          <t>('Al-Khaleej', 'Al-Okhdood')</t>
         </is>
       </c>
     </row>
@@ -3645,19 +3645,19 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>('C.S.D. Comunicaciones', 'Deportivo Marquense')</t>
+          <t>('AC Oulu', 'Seinajoen Jalkapallokerho')</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Talaea El Gaish', 'Modern Sport')</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>('Merani Tbilisi', 'Aragvi Dusheti')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>('Club Sportivo Barracas', 'Deportivo Paraguayo')</t>
+          <t>('Jeonbuk Hyundai Motors', 'Ulsan Hyundai')</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>('Partick Thistle', 'Ayr United')</t>
+          <t>('Al Ahly Cairo', 'Farko')</t>
         </is>
       </c>
     </row>
@@ -3693,19 +3693,19 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>('Club Libertad', 'Atletico Tembetary')</t>
+          <t>('BK-48', 'IF Hoppet')</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>('Neom', 'Al-Faisaly')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Adana Demirspor', 'Gazisehir Gaziantep')</t>
         </is>
       </c>
     </row>
@@ -3717,31 +3717,31 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>('Swansea City u21', 'Sheffield United u21')</t>
+          <t>('America Minas Gerais', 'Atletico Clube Goianiense')</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('IBV Vestmannaeyjar', 'FH Hafnarfjordur')</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>('SC Preussen 06 Munster', 'Hertha BSC')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Perolas Negras RJ', 'Americano')</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>('Zorya Luhansk', 'Shakhtar Donetsk')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>('Ekenas', 'Inter Turku')</t>
+          <t>('Trelleborgs', 'Helsingborgs')</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>('Shire Endaselassie', 'Fasil Kenema')</t>
+          <t>('Defensa y Justicia', 'Cerro Largo FC')</t>
         </is>
       </c>
     </row>
@@ -3777,7 +3777,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>('San Antonio Bulo Bulo', 'CA Penarol Montevideo')</t>
+          <t>('Skeid', 'Hodd')</t>
         </is>
       </c>
     </row>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>('Central African Republic u20', 'DR Congo u20')</t>
+          <t>('Narva Trans', 'Harju Jalgpallikooli')</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>('Al Etisalat', 'Al Ramadi')</t>
+          <t>('Botafogo Ribeirao Preto', 'CRB Maceio')</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>('Sokol Brozany', 'Kladno')</t>
+          <t>('Sanica Boru Elazıgspor', 'Belediye Vanspor')</t>
         </is>
       </c>
     </row>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>('Abu Qair Semad', 'Baladiyet El Mahallah')</t>
+          <t>('Club Sportivo Barracas', 'CSR Espanol')</t>
         </is>
       </c>
     </row>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>('Renofa Yamaguchi', 'Mito HollyHock')</t>
+          <t>('Galatasaray', 'Istanbul BFK')</t>
         </is>
       </c>
     </row>
@@ -3849,43 +3849,43 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>('Cambuur', 'MVV Maastricht')</t>
+          <t>("Tala'ea El-Gaish", 'Modern Sport')</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>('Maccabi Herzliya', 'Hapoel Kfar Saba')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Oddevold', 'Vasteras SK')</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>('Quang Nam', 'Cong An Ha Noi')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Akilles', 'Loviisa')</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>('Cambuur Leeuwaarden', 'Maastricht')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Jorge Wilstermann', 'Real Tomayapo')</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>('Guarani', 'Botafogo da Paraíba')</t>
+          <t>('HamKam II', 'Lillehammer')</t>
         </is>
       </c>
     </row>
@@ -3909,7 +3909,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>('Sol de America', 'Resistencia SC')</t>
+          <t>('Internacional Palmira', 'Corporacion Deportiva Real Cartagena')</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>('Henan', 'Tianjin Tiger')</t>
+          <t>('Tolka Rovers', 'Wayside Celtic')</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>('Vikingur Gota II', 'Argja Boltfelag')</t>
+          <t>('Oita Trinita', 'Ventforet Kofu')</t>
         </is>
       </c>
     </row>
@@ -3945,31 +3945,31 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>('EB Streymur II', 'IF Fuglafjordur')</t>
+          <t>('Ouakam', 'Walidaan DKR')</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>('Septemvri', 'Slavia Sofia')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('TaPa', 'Pirkkala')</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Daejeon Citizen', 'Pohang Steelers')</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>('Defensores de Belgrano', 'Club Atletico Mitre')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
@@ -3981,19 +3981,19 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>("Al-Ta'ee", 'Al Zulfi')</t>
+          <t>('Al-Ahli Club Manama', 'Malkiya Club')</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>('Hapoel Rishon Lezion', 'Hapoel Tel Aviv')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Quilmes', 'Club Atletico San Martín de Tucuman')</t>
         </is>
       </c>
     </row>
@@ -4005,14 +4005,14 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>('Al-Ittihad Jeddah', 'Al-Qadisiyah')</t>
+          <t>('CA River Plate (ARG)', 'Universitario de Deportes')</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>('Juventude', 'Atletico Mineiro')</t>
+          <t>('FC Haka', 'VPS')</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -4029,19 +4029,19 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>('CRB Maceio', 'Cuiaba')</t>
+          <t>('Vasco da Gama u20', 'Clube Atletico Bragantino u20')</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>('Osijek', 'Lokomotiva Zagreb')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Holland Park Hawks', 'Logan Lightning')</t>
         </is>
       </c>
     </row>
@@ -4053,19 +4053,19 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>('Waterford', 'Galway')</t>
+          <t>('Al Dahra Tripoli', 'Al Bashaer Club')</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Independiente', 'Nacional Potosi')</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>('Anorthosis', 'Enosis Neon Paralimni')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>('Spezia Calcio', 'US Cremonese')</t>
+          <t>('Sandvikens', 'Varbergs BoIS')</t>
         </is>
       </c>
     </row>
@@ -4089,14 +4089,14 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>('Mantova 1911', 'Carrarese Calcio')</t>
+          <t>('JS Saoura u21', 'Paradou AC u21')</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>('Pisa', 'Sudtirol')</t>
+          <t>('Al Ahly', 'Pharco FC')</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>('FC Villefranche Beaujolais', 'Quevilly-Rouen Metropole')</t>
+          <t>('JaPS', 'Nopsa')</t>
         </is>
       </c>
     </row>
@@ -4125,7 +4125,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>('Audax Italiano', 'Deportes La Serena')</t>
+          <t>('Kolkheti Khobi', 'Merani Tbilisi')</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>('CA Bucaramanga', 'Racing Club Avellaneda')</t>
+          <t>('Always Ready (Women)femmes', 'Accademia de Balompi Boliviano (Women)femmes')</t>
         </is>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>('JEF United Ichihara Chiba (Women)femmes', 'Omiya Ardija (Women)femmes')</t>
+          <t>('Las Vegas Lights', 'Phoenix Rising')</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>('Palermo FC', 'Frosinone Calcio')</t>
+          <t>('Stabaek', 'KIL Toppfotball')</t>
         </is>
       </c>
     </row>
@@ -4173,43 +4173,43 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>('Deportes Rengo', 'Santiago City')</t>
+          <t>('Atletico Mineiro u20', 'Juventude EC u20')</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>('EIF', 'Inter Turku')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Gremio FB Porto Alegrense RS', 'Sportivo Luqueno')</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>('Corinthiansfemmes', 'Bahiafemmes')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('JyTy Turku', 'ACF')</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Ghazl El Mahallah', 'Ismaily')</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>('Clube Atletico Paranaense', 'Botafogo Ribeirao Preto')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>('Walter Ferretti', 'Sebaco')</t>
+          <t>('Juventud de Las Piedras II', 'Progreso II')</t>
         </is>
       </c>
     </row>
@@ -4233,7 +4233,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>('Spartak Pleven', 'Botev Plovdiv II')</t>
+          <t>('San Antonio Texas', 'Tulsa')</t>
         </is>
       </c>
     </row>
@@ -4245,19 +4245,19 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>('Colchester United u21', 'Crewe Alexandra u21')</t>
+          <t>('Sochi', 'Pari Nizhny Novgorod')</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>('Sonderjyske', 'AaB')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Real Betis Seville', 'Chelsea FC')</t>
         </is>
       </c>
     </row>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>('Al Ain Al-Atawlah', 'Jeddah Club')</t>
+          <t>('Delfino Pescara', 'Audace Cerignola')</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>('Jelgava', 'Rigas Futbola skola')</t>
+          <t>('San Marcos de Arica', 'Deportes Copiapo')</t>
         </is>
       </c>
     </row>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>('Ulsan Hyundai', 'Pohang Steelers')</t>
+          <t>('Probiy Gorodenka', 'Kolos Kovalivka II')</t>
         </is>
       </c>
     </row>
@@ -4305,19 +4305,19 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>('Osijek', 'NK Lokomotiva')</t>
+          <t>('JEF United Ichihara Chiba', 'Renofa Yamaguchi')</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>('Magallanes', 'Santa Cruz')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Sociedade Esportiva Palmeiras u20', 'Clube de Regatas do Flamengo u20')</t>
         </is>
       </c>
     </row>
@@ -4329,7 +4329,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>('Paide Linnameeskond II', 'JK Trans Narva')</t>
+          <t>('NC Magra u21', 'Constantine u21')</t>
         </is>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>('Ethiopian Buna', 'Hadiya Hossana')</t>
+          <t>('Stromsgodset', 'HamKam')</t>
         </is>
       </c>
     </row>
@@ -4353,19 +4353,19 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>('Nueva Chicago', 'Estudiantes de Buenos Aires')</t>
+          <t>('Bentonit', 'Andranik')</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('River Plate', 'Universitario de Deportes')</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>('Kairat Almaty (Women)femmes', 'Tobol Kostanay (Women)femmes')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>('Brentford u21', 'Barnsley FC u21')</t>
+          <t>('Olaria Rio de Janeiro u20', 'Sao Goncalo u20')</t>
         </is>
       </c>
     </row>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>('Breiðablik UBK', 'Knattspyrnufelag Reykjavíkur')</t>
+          <t>('Al-Raed', 'Al Kholood')</t>
         </is>
       </c>
     </row>
@@ -4401,7 +4401,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>('Metta', 'Super Nova')</t>
+          <t>('America de Cali', 'Racing Club Montevideo')</t>
         </is>
       </c>
     </row>
@@ -4413,43 +4413,43 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>('Persik Kediri', 'Persebaya 1927')</t>
+          <t>('Fatih Karagumruk', 'Bandırmaspor')</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>('Ethiopian Coffee', 'Hadiya Hossana')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Al Feiha', 'Al Shabab Riyadh')</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Racing Club de Montevideo reserve', 'Nacional de Football reserve')</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>('Roda JC Kerkrade', 'Eindhoven')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>('JEF United Chibafemmes', 'Omiya Ardija Ventusfemmes')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('SFC Shturmi', 'Locomotive Tbilisi II')</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>('Pirin Blagoevgrad', 'Yantra Gabrovo')</t>
+          <t>('Sportivo Ameliano', 'Atletico Tembetary')</t>
         </is>
       </c>
     </row>
@@ -4473,7 +4473,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>('Egnatia', 'Partizani Tirana')</t>
+          <t>('Gwangju', 'Ulsan Hyundai')</t>
         </is>
       </c>
     </row>
@@ -4485,31 +4485,31 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>('AS Douanes Nouakchott', 'Tevragh-Zeina')</t>
+          <t>('CSD Independiente del Valle', 'Barcelona SC')</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('JEF United Chiba', 'Renofa Yamaguchi')</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>('Kickstart Rush', 'Brittons Hill')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>('Tai Po', 'Southern District')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('River Plate Montevideo II', 'Defensor Sporting II')</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>('Brighton and Hove Albion WFCfemmes', 'Arsenal WFCfemmes')</t>
+          <t>('JS Saoura', 'MC Alger')</t>
         </is>
       </c>
     </row>
@@ -4533,19 +4533,19 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>('Kallithea', 'Panetolikos')</t>
+          <t>('Elfsborg', 'Hammarby')</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>('Jaiba Brava', 'Mineros de Zacatecas')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Miramar Misiones II', 'La Luz II')</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4557,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>('ASC Linguere', 'Ouakam')</t>
+          <t>('Corinthians Paulista u20', 'Santos u20')</t>
         </is>
       </c>
     </row>
@@ -4569,19 +4569,19 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>('Arda Kardzhali', 'Ludogorets 1945')</t>
+          <t>('Waterford', 'Drogheda United')</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('Real Betis', 'Chelsea')</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>('Aktobe (Women)femmes', 'Zhenis (Women)femmes')</t>
+          <t>('', '')</t>
         </is>
       </c>
     </row>
@@ -4593,19 +4593,19 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>('Tbilisi 2025', 'Borjomi')</t>
+          <t>('Club Nacional de Football', 'Atletico Nacional Medellin')</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>('AVS', 'Boavista')</t>
+          <t>('', '')</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>('', '')</t>
+          <t>('CD Palestino', 'Mushuc Runa SC')</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>('Hillerod', 'B.93 Copenhagen')</t>
+          <t>('VMFD Zalgiris Vilnius II', 'Hegelmann Litauen II')</t>
         </is>
       </c>
     </row>
@@ -4629,2503 +4629,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>('CSKA Yerevan II', 'Lernayin Artsakh')</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>('Cruzeiro', 'Flamengo')</t>
-        </is>
-      </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>('Tomiris-Turan (Women)femmes', 'Zhetysu (Women)femmes')</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>('Southampton FC u21', 'Fulham FC u21')</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>('CA Boston River', 'CA Independiente Avellaneda')</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>('Modena FC', 'Brescia Calcio')</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>('Goias Esporte Clube', 'Avai')</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>('EM Deportivo Binacional', 'Deportivo Los Chankas')</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>('Sturm Graz', 'Red Bull Salzburg')</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>('Xamax', 'Etoile')</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>('SonderjyskE', 'AaB Fodbold')</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>('Spezia', 'Cremonese')</t>
-        </is>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>('San Antonio Bulo Bulo', 'Penarol')</t>
-        </is>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>('Fort Lauderdale Solaiya', 'Florida Futbol Club')</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>('Wolaitta Dicha', 'Arba Minch')</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>('Shamrock Rovers', 'Drogheda United')</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>('Brighton and Hove Albionfemmes', 'Arsenalfemmes')</t>
-        </is>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>('River Plate', 'Velez Sarsfield')</t>
-        </is>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>('Al Bataeh', 'Bani Yas')</t>
-        </is>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>('CS Cienciano', 'Caracas FC')</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>('Vikingur Reykjavik', 'Knattspyrnufelagið Fram')</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>('ZED', 'Al Ittihad Alexandria')</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>('Sacachispas', 'Ferrocarril Midland')</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>('ZED', 'Al Ittihad Al Sakandary')</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>('Tiller IL', 'Molde II')</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>('Kvik Halden', 'Sarpsborg 08 II')</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>('BK Olympic', 'Rosengard')</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>('Breidablik', 'KR Reykjavik')</t>
-        </is>
-      </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>('Guarani', 'Botafogo PB')</t>
-        </is>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>('Vancouver Rise (Women)femmes', 'Halifax Tides (Women)femmes')</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>('Club Comerciantes Unidos', 'EM Deportivo Binacional')</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>('BK Olympic', 'Rosengaard')</t>
-        </is>
-      </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>('Nimes', 'Aubagne')</t>
-        </is>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>('Wofoo Tai Po', 'Southern District')</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>('Fortaleza Esporte Clube u20', 'Cuiaba u20')</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>('Assyriska Foreningen', 'Vasalunds')</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>('Elgin City', 'Annan Athletic')</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>('Kahraba Ismailia', 'Telecom Egypt')</t>
-        </is>
-      </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>('GV Club Deportivo San Jose de Oruro', 'Fluminense FC RJ')</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>('Atletico Grau', 'Gremio FB Porto Alegrense RS')</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>('Hillerod Fodbold', 'B93 Copenhagen')</t>
-        </is>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>('Paris Saint-Germain', 'Arsenal FC')</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>('Atletico Huila', 'Patriotas')</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>('Libertad Limpeno (Women)femmes', 'National Humaita (Women)femmes')</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>('Betlemi Keda', 'Margveti 2006')</t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>('Kallithea', 'Panaitolikos')</t>
-        </is>
-      </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B396" t="inlineStr">
-        <is>
-          <t>('Sassuolo Calcio', 'US Catanzaro')</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>('Inter Milano', 'FC Barcelona')</t>
-        </is>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>('Zambia u20', 'Tanzania u20')</t>
-        </is>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B399" t="inlineStr">
-        <is>
-          <t>('JEF United Ichihara Chiba', 'Omiya Ardija')</t>
-        </is>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B400" t="inlineStr">
-        <is>
-          <t>('Santos u20', 'Gremio Porto Alegrense u20')</t>
-        </is>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B401" t="inlineStr">
-        <is>
-          <t>('AGF Aarhus', 'Midtjylland')</t>
-        </is>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B402" t="inlineStr">
-        <is>
-          <t>('Al Bataeh', 'Baniyas')</t>
-        </is>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>('Sharjah FC', 'Shabab Al Ahli')</t>
-        </is>
-      </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B404" t="inlineStr">
-        <is>
-          <t>('Edinburgh FC', 'East Fife')</t>
-        </is>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B405" t="inlineStr">
-        <is>
-          <t>('Sport Club Internacional u20', 'America Minas Gerais u20')</t>
-        </is>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>('Galway United', 'Bohemians')</t>
-        </is>
-      </c>
-      <c r="B406" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B407" t="inlineStr">
-        <is>
-          <t>('Bulleen Lions u23', 'Eastern Lions u23')</t>
-        </is>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>('Sportivo Luqueno', 'CD Godoy Cruz')</t>
-        </is>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>('Bubali', 'Estudiantes Maritimo')</t>
-        </is>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>('Eastern Sports Club', 'Kowloon City')</t>
-        </is>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>('JEF United Chiba', 'Omiya Ardija')</t>
-        </is>
-      </c>
-      <c r="B411" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B412" t="inlineStr">
-        <is>
-          <t>('Barcelona Sporting Club', 'Vinotinto Ecuador')</t>
-        </is>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>('Velez Sarsfield', 'Olimpia Asuncion')</t>
-        </is>
-      </c>
-      <c r="B413" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>('Puntarenas', 'AD Santa Ana')</t>
-        </is>
-      </c>
-      <c r="B414" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B415" t="inlineStr">
-        <is>
-          <t>('Charlton Athletic u21', 'Coventry City u21')</t>
-        </is>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B416" t="inlineStr">
-        <is>
-          <t>('Worksop Town', 'Guiseley FC')</t>
-        </is>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B417" t="inlineStr">
-        <is>
-          <t>('Radnicki Sremska Mitrovica', 'Dubocica')</t>
-        </is>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B418" t="inlineStr">
-        <is>
-          <t>('Kyzylzhar (Women)femmes', 'Okzhetpes (Women)femmes')</t>
-        </is>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B419" t="inlineStr">
-        <is>
-          <t>('Bentonit', 'Syunik')</t>
-        </is>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>('Roda JC', 'FC Eindhoven')</t>
-        </is>
-      </c>
-      <c r="B420" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>('Neuchatel Xamax', 'Etoile Carouge')</t>
-        </is>
-      </c>
-      <c r="B421" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B422" t="inlineStr">
-        <is>
-          <t>('Clube de Regatas do Flamengo u20', 'Esporte Clube Bahia u20')</t>
-        </is>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B423" t="inlineStr">
-        <is>
-          <t>('Al Nassr', 'Al-Ittihad Jeddah')</t>
-        </is>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B424" t="inlineStr">
-        <is>
-          <t>('Real Brasilia (Women)femmes', 'Cruzeiro (Women)femmes')</t>
-        </is>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B425" t="inlineStr">
-        <is>
-          <t>('Neom SC', 'Al-Faisaly Harmah')</t>
-        </is>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>('Mantova', 'Carrarese')</t>
-        </is>
-      </c>
-      <c r="B426" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B427" t="inlineStr">
-        <is>
-          <t>('San Diego Wave (Women)femmes', 'Bay (Women)femmes')</t>
-        </is>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B428" t="inlineStr">
-        <is>
-          <t>('Vitebsk', 'Neman Grodno')</t>
-        </is>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>('Nurnberg', 'FC Koln')</t>
-        </is>
-      </c>
-      <c r="B429" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B430" t="inlineStr">
-        <is>
-          <t>('Bristol City u21', 'Birmingham City u21')</t>
-        </is>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B431" t="inlineStr">
-        <is>
-          <t>('Gazisehir Gaziantep', 'Alanyaspor')</t>
-        </is>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>('Valenciennes', 'Nancy')</t>
-        </is>
-      </c>
-      <c r="B432" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B433" t="inlineStr">
-        <is>
-          <t>('Red Bull Bragantino', 'Mirassol')</t>
-        </is>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B434" t="inlineStr">
-        <is>
-          <t>('Cerro Porteno', 'SE Palmeiras SP')</t>
-        </is>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>('Nautico', 'Brusque')</t>
-        </is>
-      </c>
-      <c r="B435" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B436" t="inlineStr">
-        <is>
-          <t>('Mayaguez', 'Quintana Academy')</t>
-        </is>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>('Afturelding', 'Stjarnan')</t>
-        </is>
-      </c>
-      <c r="B437" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B438" t="inlineStr">
-        <is>
-          <t>('Pisa SC', 'FC Sudtirol Bolzano')</t>
-        </is>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>('Sturm Graz', 'Salzburg')</t>
-        </is>
-      </c>
-      <c r="B439" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B440" t="inlineStr">
-        <is>
-          <t>('Al Ahly Cairo', 'Al-Masry')</t>
-        </is>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B441" t="inlineStr">
-        <is>
-          <t>('Operario Ferroviario', 'America Minas Gerais')</t>
-        </is>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>('GV San Jose', 'Fluminense')</t>
-        </is>
-      </c>
-      <c r="B442" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>('Sampdoria', 'Salernitana')</t>
-        </is>
-      </c>
-      <c r="B443" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B444" t="inlineStr">
-        <is>
-          <t>('US Cremonese', 'Atalanta BC')</t>
-        </is>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B445" t="inlineStr">
-        <is>
-          <t>('Ethiopian Insurance', 'Bahir Dar Kenema')</t>
-        </is>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B446" t="inlineStr">
-        <is>
-          <t>('Falcons', 'Armed Forces')</t>
-        </is>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B447" t="inlineStr">
-        <is>
-          <t>('La Viena', 'El Mokawloon')</t>
-        </is>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>('Goias', 'Avai')</t>
-        </is>
-      </c>
-      <c r="B448" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>('AEK Larnaca', 'Omonia Nicosia')</t>
-        </is>
-      </c>
-      <c r="B449" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>('CRB', 'Cuiaba')</t>
-        </is>
-      </c>
-      <c r="B450" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B451" t="inlineStr">
-        <is>
-          <t>('Vejle', 'Randers')</t>
-        </is>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B452" t="inlineStr">
-        <is>
-          <t>('Sochaux-Montbeliard', 'Football Bourg-En-Bresse Peronnas 01')</t>
-        </is>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B453" t="inlineStr">
-        <is>
-          <t>('CA Paranaense u20', 'Corinthians Paulista u20')</t>
-        </is>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>('Chelsea', 'Real Betis')</t>
-        </is>
-      </c>
-      <c r="B454" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>('Ulsan HD', 'Pohang Steelers')</t>
-        </is>
-      </c>
-      <c r="B455" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B456" t="inlineStr">
-        <is>
-          <t>('Skjetten', 'HamKam II')</t>
-        </is>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B457" t="inlineStr">
-        <is>
-          <t>('Signature (Women)femmes', 'Royal Rangers (Women)femmes')</t>
-        </is>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>('Maccabi Tel Aviv', 'Hapoel Beer Sheva')</t>
-        </is>
-      </c>
-      <c r="B458" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>('Modena', 'Brescia')</t>
-        </is>
-      </c>
-      <c r="B459" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>('Cosenza', 'Cesena')</t>
-        </is>
-      </c>
-      <c r="B460" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="inlineStr">
-        <is>
-          <t>('Barcelona SC', 'River Plate')</t>
-        </is>
-      </c>
-      <c r="B461" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B462" t="inlineStr">
-        <is>
-          <t>('Orbi', 'WIT Georgia Tbilisi')</t>
-        </is>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B463" t="inlineStr">
-        <is>
-          <t>('CBE SA', 'Welwalo Adigrat')</t>
-        </is>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>('SV Stripfing', 'FC Liefering')</t>
-        </is>
-      </c>
-      <c r="B464" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B465" t="inlineStr">
-        <is>
-          <t>('Encarnacion', 'Deportivo Santaní')</t>
-        </is>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B466" t="inlineStr">
-        <is>
-          <t>('Agropecuario', 'Central Norte Salta')</t>
-        </is>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B467" t="inlineStr">
-        <is>
-          <t>('Velez Sarsfield', 'Club Olimpia')</t>
-        </is>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B468" t="inlineStr">
-        <is>
-          <t>('Clube Atletico Paranaense', 'Chapecoense')</t>
-        </is>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B469" t="inlineStr">
-        <is>
-          <t>('Shelbourne', "St Patrick's Athletic")</t>
-        </is>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B470" t="inlineStr">
-        <is>
-          <t>('Club Olimpia de Ita', 'Limpeno')</t>
-        </is>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B471" t="inlineStr">
-        <is>
-          <t>('Smouha', "Tala'ea El-Gaish")</t>
-        </is>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B472" t="inlineStr">
-        <is>
-          <t>('Pachuca (Women)femmes', 'Monterrey (Women)femmes')</t>
-        </is>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B473" t="inlineStr">
-        <is>
-          <t>('ACF Fiorentina', 'Real Betis Seville')</t>
-        </is>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>('FS Jelgava', 'RFS')</t>
-        </is>
-      </c>
-      <c r="B474" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B475" t="inlineStr">
-        <is>
-          <t>('Aves', 'Boavista Porto')</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>('El Gounah', 'Modern Sport')</t>
-        </is>
-      </c>
-      <c r="B476" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>('Sassuolo', 'Catanzaro')</t>
-        </is>
-      </c>
-      <c r="B477" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B478" t="inlineStr">
-        <is>
-          <t>('Smederevo', 'Zemun')</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B479" t="inlineStr">
-        <is>
-          <t>('Kahrbaa Alasmalia', 'Telecom Egypt')</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>('Viamaterasu Miyazakifemmes', 'Ehimefemmes')</t>
-        </is>
-      </c>
-      <c r="B480" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B481" t="inlineStr">
-        <is>
-          <t>('Al-Nasr SC', 'Al Yarmouk Kuwait')</t>
-        </is>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B482" t="inlineStr">
-        <is>
-          <t>('AZ Alkmaar II', 'Excelsior')</t>
-        </is>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>('Western Sydney Wanderers', 'Melbourne Victory')</t>
-        </is>
-      </c>
-      <c r="B483" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>('Dalian Yingbo', 'Beijing Guoan')</t>
-        </is>
-      </c>
-      <c r="B484" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>('Jong AZ Alkmaar', 'Excelsior')</t>
-        </is>
-      </c>
-      <c r="B485" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B486" t="inlineStr">
-        <is>
-          <t>('Clube Atletico Bragantino u20', 'Botafogo de Futebol e Regatas u20')</t>
-        </is>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B487" t="inlineStr">
-        <is>
-          <t>('Masafi Club', 'Al Jolan')</t>
-        </is>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B488" t="inlineStr">
-        <is>
-          <t>('Puntarenas', 'Municipal Santa Ana')</t>
-        </is>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B489" t="inlineStr">
-        <is>
-          <t>('Deportivo Cali (Women)femmes', 'Real Santander (Women)femmes')</t>
-        </is>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>('Gateshead', 'Southend United')</t>
-        </is>
-      </c>
-      <c r="B490" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B491" t="inlineStr">
-        <is>
-          <t>('Al-Ahli Jeddah', 'Al-Taawon')</t>
-        </is>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>('Djurgardens', 'Norrkoping')</t>
-        </is>
-      </c>
-      <c r="B492" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B493" t="inlineStr">
-        <is>
-          <t>('Al-Raed', 'Al-Hilal Riyadh')</t>
-        </is>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="inlineStr">
-        <is>
-          <t>('Al Ahly', 'Al Masry')</t>
-        </is>
-      </c>
-      <c r="B494" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B495" t="inlineStr">
-        <is>
-          <t>('Viamaterras Miyazaki (Women)femmes', 'Ehime (Women)femmes')</t>
-        </is>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B496" t="inlineStr">
-        <is>
-          <t>('CA Fenix Pilar', 'Villa Dalmine')</t>
-        </is>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B497" t="inlineStr">
-        <is>
-          <t>('Maccabi Tel Aviv', "Hapoel Be'er Sheva")</t>
-        </is>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="inlineStr">
-        <is>
-          <t>('Raya SC', 'Aswan')</t>
-        </is>
-      </c>
-      <c r="B498" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B499" t="inlineStr">
-        <is>
-          <t>('Kolos Kovalivka II', 'Oleksandriya II')</t>
-        </is>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" t="inlineStr">
-        <is>
-          <t>('Club Nacional Asuncion reserve', 'Sportivo Ameliano reserve')</t>
-        </is>
-      </c>
-      <c r="B500" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" t="inlineStr">
-        <is>
-          <t>('Persik Kediri', 'Persebaya Surabaya')</t>
-        </is>
-      </c>
-      <c r="B501" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B502" t="inlineStr">
-        <is>
-          <t>('Binga', 'AS Police Bamako')</t>
-        </is>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B503" t="inlineStr">
-        <is>
-          <t>('CSKA Sofia 1948', 'Hebar Pazardzhik')</t>
-        </is>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B504" t="inlineStr">
-        <is>
-          <t>('Vitesse', 'Den Bosch')</t>
-        </is>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" t="inlineStr">
-        <is>
-          <t>('Nueva Chicago', 'Estudiantes de Caseros')</t>
-        </is>
-      </c>
-      <c r="B505" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B506" t="inlineStr">
-        <is>
-          <t>('El Gouna', 'Modern Sport')</t>
-        </is>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B507" t="inlineStr">
-        <is>
-          <t>('Chengdu Rongcheng', 'Zhejiang Professional')</t>
-        </is>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B508" t="inlineStr">
-        <is>
-          <t>('Tampines Rovers', 'Balestier Khalsa')</t>
-        </is>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B509" t="inlineStr">
-        <is>
-          <t>('Arges Pitesti', 'Resita')</t>
-        </is>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B510" t="inlineStr">
-        <is>
-          <t>('ACF Fiorentina', 'Genoa CFC')</t>
-        </is>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B511" t="inlineStr">
-        <is>
-          <t>('Jeonbuk Hyundai Motors', 'Daejeon Hana Citizen')</t>
-        </is>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" t="inlineStr">
-        <is>
-          <t>('San Diego Wave', 'Bay FC')</t>
-        </is>
-      </c>
-      <c r="B512" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B513" t="inlineStr">
-        <is>
-          <t>('Omonia 29th May', 'Nea Salamis')</t>
-        </is>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B514" t="inlineStr">
-        <is>
-          <t>('BST Galaxy', 'Team Rhino')</t>
-        </is>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B515" t="inlineStr">
-        <is>
-          <t>('Cosenza Calcio', 'Cesena FC')</t>
-        </is>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B516" t="inlineStr">
-        <is>
-          <t>('Ethio Electric', 'Saint-George Addis Abeba')</t>
-        </is>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B517" t="inlineStr">
-        <is>
-          <t>('Corporacion Deportiva Real Cartagena', 'Barranquilla')</t>
-        </is>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>('Fiorentina', 'Real Betis')</t>
-        </is>
-      </c>
-      <c r="B518" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="inlineStr">
-        <is>
-          <t>('Atletico Bucaramanga', 'Racing Club')</t>
-        </is>
-      </c>
-      <c r="B519" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>('Monterrey', 'Pumas UNAM')</t>
-        </is>
-      </c>
-      <c r="B520" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>('Athletico Paranaense', 'Botafogo SP')</t>
-        </is>
-      </c>
-      <c r="B521" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B522" t="inlineStr">
-        <is>
-          <t>('Cucuta Deportivo', 'Real Santander')</t>
-        </is>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B523" t="inlineStr">
-        <is>
-          <t>('Septemvri Sofia', 'Slavia Sofia')</t>
-        </is>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B524" t="inlineStr">
-        <is>
-          <t>('Aguilas Doradas', 'Deportivo Pereira')</t>
-        </is>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>('Blooming', 'GV San Jose')</t>
-        </is>
-      </c>
-      <c r="B525" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>('Palermo', 'Frosinone')</t>
-        </is>
-      </c>
-      <c r="B526" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>('Vikingur Reykjavik', 'Fram Reykjavik')</t>
-        </is>
-      </c>
-      <c r="B527" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>('Istanbul Basaksehir', 'Fenerbahce')</t>
-        </is>
-      </c>
-      <c r="B528" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B529" t="inlineStr">
-        <is>
-          <t>('Galway', 'Bohemian Dublin')</t>
-        </is>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B530" t="inlineStr">
-        <is>
-          <t>('Club Nacional II', 'Sportivo Ameliano II')</t>
-        </is>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>('Comunicaciones', 'Marquense')</t>
-        </is>
-      </c>
-      <c r="B531" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B532" t="inlineStr">
-        <is>
-          <t>('Lamontville Golden Arrows', 'Orlando Pirates')</t>
-        </is>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B533" t="inlineStr">
-        <is>
-          <t>('Clube Nautico Capibaribe', 'Brusque')</t>
-        </is>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B534" t="inlineStr">
-        <is>
-          <t>('B 71 Sandoy', 'NSI Runavik II')</t>
-        </is>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B535" t="inlineStr">
-        <is>
-          <t>('Astana (Women)femmes', 'Elimai (Women)femmes')</t>
-        </is>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>('Paide Linnameeskond II', 'Narva JK Trans II')</t>
-        </is>
-      </c>
-      <c r="B536" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="inlineStr">
-        <is>
-          <t>('Operario Ferroviario', 'America Mineiro')</t>
-        </is>
-      </c>
-      <c r="B537" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B538" t="inlineStr">
-        <is>
-          <t>('ML Vitebsk', 'Torpedo-BelAZ')</t>
-        </is>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>('Internazionale', 'Barcelona')</t>
-        </is>
-      </c>
-      <c r="B539" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B540" t="inlineStr">
-        <is>
-          <t>('Valenciennes FC', 'Nancy-Lorraine')</t>
-        </is>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B541" t="inlineStr">
-        <is>
-          <t>('Polissya Zhytomyr', 'Dynamo Kyiv')</t>
-        </is>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B542" t="inlineStr">
-        <is>
-          <t>('Al Sharjah', 'Shabab Al-Ahli Dubai')</t>
-        </is>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B543" t="inlineStr">
-        <is>
-          <t>('Cork City', 'Derry City')</t>
-        </is>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B544" t="inlineStr">
-        <is>
-          <t>('Gardabani', 'Bakhmaro Chokhatauri')</t>
-        </is>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" t="inlineStr">
-        <is>
-          <t>('Omonia 29is Maiou', 'Nea Salamis')</t>
-        </is>
-      </c>
-      <c r="B545" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B546" t="inlineStr">
-        <is>
-          <t>('PSV Eindhoven II', 'Utrecht II')</t>
-        </is>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" t="inlineStr">
-        <is>
-          <t>('Boston River', 'Independiente')</t>
-        </is>
-      </c>
-      <c r="B547" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B548" t="inlineStr">
-        <is>
-          <t>('Watford FC u21', 'Sheffield Wednesday u21')</t>
-        </is>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B549" t="inlineStr">
-        <is>
-          <t>('Cruzeiro Esporte Clube', 'Flamengo')</t>
-        </is>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B550" t="inlineStr">
-        <is>
-          <t>('1 FC Nuremberg', '1. FC Cologne')</t>
-        </is>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" t="inlineStr">
-        <is>
-          <t>('Abu Qair Semad', 'Baladiyyat AL Mehalla')</t>
-        </is>
-      </c>
-      <c r="B551" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B552" t="inlineStr">
-        <is>
-          <t>('River Plate Buenos Aires', 'Velez Sarsfield')</t>
-        </is>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B553" t="inlineStr">
-        <is>
-          <t>('Cacahuatique (Women)femmes', 'Alianza San Salvador (Women)femmes')</t>
-        </is>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" t="inlineStr">
-        <is>
-          <t>('Jong PSV', 'Jong Utrecht')</t>
-        </is>
-      </c>
-      <c r="B554" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" t="inlineStr">
-        <is>
-          <t>('Jong Aruba', 'River Plate')</t>
-        </is>
-      </c>
-      <c r="B555" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B556" t="inlineStr">
-        <is>
-          <t>('TMT', 'Fortune Farato')</t>
-        </is>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B557" t="inlineStr">
-        <is>
-          <t>('International Allies', 'RainMasters')</t>
-        </is>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="inlineStr">
-        <is>
-          <t>('', '')</t>
-        </is>
-      </c>
-      <c r="B558" t="inlineStr">
-        <is>
-          <t>('Csikszereda Miercurea Ciuc', 'CS Metaloglobus Bucuresti')</t>
+          <t>('AS Douanes Dakar', 'AS Bambey')</t>
         </is>
       </c>
     </row>
